--- a/data/trans_dic/P19F$tarde-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19F$tarde-Clase-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.222415539885365</v>
+        <v>0.2271684589937441</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2723459377958253</v>
+        <v>0.2654761286266266</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2614407058773408</v>
+        <v>0.2588338773074895</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3616418259982831</v>
+        <v>0.3578244780758327</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4449404479754929</v>
+        <v>0.4320953371167157</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3635819570995668</v>
+        <v>0.3695206916711763</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2958415187568421</v>
+        <v>0.2989761724435348</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3161709213536154</v>
+        <v>0.313685632587908</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3314112292075708</v>
+        <v>0.3284435356209165</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4419418482682088</v>
+        <v>0.4414184120645036</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4650252457659398</v>
+        <v>0.466286437652648</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4311153529534927</v>
+        <v>0.4308831608006787</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2538407158390639</v>
+        <v>0.2481129009575636</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1547227669659957</v>
+        <v>0.1534231759369134</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2504182433506192</v>
+        <v>0.2471776372245653</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3628571414539321</v>
+        <v>0.362678632493405</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3539666412898762</v>
+        <v>0.3572868202332199</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3407358417372158</v>
+        <v>0.3422713798989743</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2693494446439852</v>
+        <v>0.2677092442295188</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2776506437099183</v>
+        <v>0.2792281309892045</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2848442990292191</v>
+        <v>0.2830495704910405</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3426211245626957</v>
+        <v>0.3420922856230621</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3706714540264729</v>
+        <v>0.3730773785750985</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3415034495151798</v>
+        <v>0.3447435889551227</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2428601749846649</v>
+        <v>0.2419638189858927</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2563111005673883</v>
+        <v>0.2600758859008787</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2602166964388793</v>
+        <v>0.2662185055633713</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3386483016069324</v>
+        <v>0.3399702107617782</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3546885488000592</v>
+        <v>0.3537448058950051</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3290547079645021</v>
+        <v>0.3336200200915549</v>
       </c>
     </row>
     <row r="19">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.245852747603546</v>
+        <v>0.2480181288302389</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2676030378895974</v>
+        <v>0.2677933051005819</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2817175241488586</v>
+        <v>0.2769793265255678</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4003221258753233</v>
+        <v>0.396978086399021</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.354518357878521</v>
+        <v>0.3501473050350906</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3551797593118269</v>
+        <v>0.3483206914985887</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2872420674554675</v>
+        <v>0.2866430599624525</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2980357121688156</v>
+        <v>0.2973798940818932</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2976100306157103</v>
+        <v>0.2981813043296992</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3311288523535881</v>
+        <v>0.3304285501006167</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3442939457432048</v>
+        <v>0.3439169930644622</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3300107541391281</v>
+        <v>0.32957792528896</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>44430</v>
+        <v>45379</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>35087</v>
+        <v>34202</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>85908</v>
+        <v>85051</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>72241</v>
+        <v>71479</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>57323</v>
+        <v>55669</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>119470</v>
+        <v>121422</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>53004</v>
+        <v>53565</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>56739</v>
+        <v>56293</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>118851</v>
+        <v>117786</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>79180</v>
+        <v>79086</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>83452</v>
+        <v>83678</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>154607</v>
+        <v>154523</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>71605</v>
+        <v>69990</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>11537</v>
+        <v>11440</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>89313</v>
+        <v>88157</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>102358</v>
+        <v>102307</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>26394</v>
+        <v>26641</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>121525</v>
+        <v>122072</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>167720</v>
+        <v>166699</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>117363</v>
+        <v>118030</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>297773</v>
+        <v>295897</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>213346</v>
+        <v>213016</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>156683</v>
+        <v>157700</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>357004</v>
+        <v>360391</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>81851</v>
+        <v>81549</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>103769</v>
+        <v>105293</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>193051</v>
+        <v>197504</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>114134</v>
+        <v>114579</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>143598</v>
+        <v>143216</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>244121</v>
+        <v>247508</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>38583</v>
+        <v>38922</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>141214</v>
+        <v>141315</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>192873</v>
+        <v>189629</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>62824</v>
+        <v>62299</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>187079</v>
+        <v>184773</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>243168</v>
+        <v>238472</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>510618</v>
+        <v>509553</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>518020</v>
+        <v>516880</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1046329</v>
+        <v>1048338</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>588634</v>
+        <v>587389</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>598422</v>
+        <v>597767</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1160243</v>
+        <v>1158721</v>
       </c>
     </row>
     <row r="32">
